--- a/HISTORICAL_REPORT.xlsx
+++ b/HISTORICAL_REPORT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\insight fusion\DAN Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DD2FDC-4949-422E-9B3A-7416B85B479C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C91F42D-5C26-DB4B-84A6-E327A3D6ED12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B4BFA12A-F6D5-D14D-8601-1EBB1372B549}"/>
+    <workbookView xWindow="2100" yWindow="760" windowWidth="31580" windowHeight="20380" activeTab="2" xr2:uid="{B4BFA12A-F6D5-D14D-8601-1EBB1372B549}"/>
   </bookViews>
   <sheets>
     <sheet name="WA" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -515,7 +517,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -991,7 +993,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1094,7 +1096,7 @@
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1116,9 +1118,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1156,7 +1158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1262,7 +1264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1404,7 +1406,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1502,20 +1504,20 @@
       <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="14.69921875" customWidth="1"/>
+    <col min="1" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="6" width="15" customWidth="1"/>
-    <col min="7" max="8" width="15.796875" customWidth="1"/>
-    <col min="9" max="10" width="13.296875" customWidth="1"/>
+    <col min="7" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="10" width="13.33203125" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="30" customWidth="1"/>
-    <col min="13" max="13" width="11.796875" customWidth="1"/>
-    <col min="14" max="14" width="13.69921875" customWidth="1"/>
-    <col min="15" max="15" width="10.796875" customWidth="1"/>
-    <col min="16" max="16" width="11.796875" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
@@ -1577,7 +1579,7 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1629,7 @@
         <v>1.8031157768894535</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>1.8489688195991092</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>1.5406098882897292</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2049,7 @@
         <v>2.0693483629802647</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>1.5693595009306855</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>1.8973814011308496</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2197,7 +2199,7 @@
         <v>2.2762100052583674</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>1.8660943079403836</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>1.8227167767222263</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -2354,7 +2356,7 @@
         <v>1.657341580191404</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -2404,7 +2406,7 @@
         <v>1.494841228855821</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>1.9932777009269469</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -2504,7 +2506,7 @@
         <v>2.0384932197346908</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>2.0893533806580087</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -2604,7 +2606,7 @@
         <v>1.9172453009974335</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
@@ -2654,7 +2656,7 @@
         <v>2.2576139314594799</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -2705,7 +2707,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -2755,7 +2757,7 @@
         <v>1.9807445139793736</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +2807,7 @@
         <v>2.0468520336491784</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>1.8875115561218425</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -2905,7 +2907,7 @@
         <v>2.2999200000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>2.0047602189940323</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -3112,7 +3114,7 @@
         <v>1.6682747192581893</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
@@ -3162,7 +3164,7 @@
         <v>2.1280236980127696</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -3212,7 +3214,7 @@
         <v>2.1425663647903979</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -3262,7 +3264,7 @@
         <v>1.4778077446960327</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
@@ -3312,7 +3314,7 @@
         <v>1.4944466778076422</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>1.518962861622299</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>1.7043646223403905</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
@@ -3457,7 +3459,7 @@
       <c r="M39" s="46"/>
       <c r="N39" s="7"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
@@ -3502,7 +3504,7 @@
       <c r="M40" s="46"/>
       <c r="N40" s="7"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
@@ -3547,7 +3549,7 @@
       <c r="M41" s="46"/>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -3592,7 +3594,7 @@
       <c r="M42" s="46"/>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>38</v>
       </c>
@@ -3637,7 +3639,7 @@
       <c r="M43" s="47"/>
       <c r="N43" s="50"/>
     </row>
-    <row r="44" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -3691,7 +3693,7 @@
       </c>
       <c r="N44" s="49"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>39</v>
       </c>
@@ -3736,7 +3738,7 @@
       <c r="M45" s="14"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -3781,7 +3783,7 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -3826,7 +3828,7 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -3871,7 +3873,7 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -3916,7 +3918,7 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
@@ -3961,7 +3963,7 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -4006,7 +4008,7 @@
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -4051,7 +4053,7 @@
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -4096,7 +4098,7 @@
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -4141,7 +4143,7 @@
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
@@ -4186,7 +4188,7 @@
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -4231,7 +4233,7 @@
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>56</v>
       </c>
@@ -4273,7 +4275,7 @@
       <c r="M57" s="17"/>
       <c r="N57" s="17"/>
     </row>
-    <row r="58" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
@@ -4324,7 +4326,7 @@
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
     </row>
-    <row r="59" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -4375,19 +4377,19 @@
       <c r="M59" s="35"/>
       <c r="N59" s="37"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L60" s="30">
         <f>AVERAGE(L3:L7)</f>
         <v>1.1154765925020957</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L61" s="30">
         <f>AVERAGE(L3:L8)</f>
         <v>1.13395267776214</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L62" s="30">
         <f>AVERAGE(L3:L7)</f>
         <v>1.1154765925020957</v>
@@ -4408,15 +4410,15 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="15.796875" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
@@ -4430,7 +4432,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
@@ -4438,7 +4440,7 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -4453,7 +4455,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -4483,7 +4485,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -4498,7 +4500,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4513,7 +4515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4528,7 +4530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4558,7 +4560,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -4618,7 +4620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -4664,7 +4666,7 @@
         <v>9.336212121212121</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>10.407761194029851</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -4694,7 +4696,7 @@
         <v>5.4056467876692595</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>4.7921005077015746</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -4724,7 +4726,7 @@
         <v>4.4841821853264525</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>7.9889683598011878</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>9.9223155714121312</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>6.8534185932120018</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -4784,7 +4786,7 @@
         <v>4.3860246332858823</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -4799,7 +4801,7 @@
         <v>13.438523201987129</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -4814,7 +4816,7 @@
         <v>13.328312570781428</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>13.026610978520287</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
@@ -4844,7 +4846,7 @@
         <v>10.297543377426559</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -4861,7 +4863,7 @@
         <v>8.1655812330747128</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
@@ -4876,7 +4878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -4891,7 +4893,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
@@ -4906,7 +4908,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -4921,7 +4923,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -4936,7 +4938,7 @@
         <v>58.394786550812242</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>13.578118524658102</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
@@ -4966,7 +4968,7 @@
         <v>10.363408800133504</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>12.141045862654696</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
@@ -4993,7 +4995,7 @@
       </c>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
@@ -5005,7 +5007,7 @@
       </c>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
@@ -5015,7 +5017,7 @@
       <c r="C41" s="64"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -5025,7 +5027,7 @@
       <c r="C42" s="64"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>38</v>
       </c>
@@ -5035,7 +5037,7 @@
       <c r="C43" s="69"/>
       <c r="D43" s="50"/>
     </row>
-    <row r="44" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -5049,7 +5051,7 @@
       </c>
       <c r="D44" s="49"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>39</v>
       </c>
@@ -5059,7 +5061,7 @@
       <c r="C45" s="64"/>
       <c r="D45" s="14"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -5069,7 +5071,7 @@
       <c r="C46" s="64"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -5079,7 +5081,7 @@
       <c r="C47" s="64"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -5089,7 +5091,7 @@
       <c r="C48" s="64"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -5099,7 +5101,7 @@
       <c r="C49" s="64"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
@@ -5109,7 +5111,7 @@
       <c r="C50" s="64"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -5119,7 +5121,7 @@
       <c r="C51" s="64"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -5129,7 +5131,7 @@
       <c r="C52" s="64"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -5139,7 +5141,7 @@
       <c r="C53" s="64"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -5149,7 +5151,7 @@
       <c r="C54" s="64"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
@@ -5159,7 +5161,7 @@
       <c r="C55" s="64"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -5169,7 +5171,7 @@
       <c r="C56" s="64"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>56</v>
       </c>
@@ -5179,7 +5181,7 @@
       <c r="C57" s="69"/>
       <c r="D57" s="17"/>
     </row>
-    <row r="58" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
@@ -5190,7 +5192,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="36"/>
     </row>
-    <row r="59" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -5204,7 +5206,7 @@
       </c>
       <c r="D59" s="37"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="75"/>
       <c r="B61" t="s">
         <v>78</v>
@@ -5220,20 +5222,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A66863-BD37-A245-A389-28FF9C020A00}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.296875" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" customWidth="1"/>
-    <col min="6" max="6" width="13.296875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
@@ -5253,7 +5255,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
@@ -5263,7 +5265,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -5278,14 +5280,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="64">
-        <v>-54187</v>
+        <v>54187</v>
       </c>
       <c r="F3" s="8">
-        <f>SUM(E3/C3)</f>
-        <v>-0.71777515796166536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F38" si="0">SUM(E3/C3)</f>
+        <v>0.71777515796166536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -5296,18 +5298,18 @@
         <v>82418</v>
       </c>
       <c r="D4" s="8" t="e">
-        <f t="shared" ref="D4:D59" si="0">SUM(C4/B4)</f>
+        <f t="shared" ref="D4:D59" si="1">SUM(C4/B4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E4" s="64">
         <v>67179</v>
       </c>
       <c r="F4" s="8">
-        <f t="shared" ref="F3:F38" si="1">SUM(E4/C4)</f>
+        <f t="shared" si="0"/>
         <v>0.81510107015457789</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -5318,18 +5320,18 @@
         <v>84407</v>
       </c>
       <c r="D5" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E5" s="64">
         <v>67696</v>
       </c>
       <c r="F5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.80201878991078934</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -5340,18 +5342,18 @@
         <v>83991</v>
       </c>
       <c r="D6" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E6" s="64">
         <v>84850</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0102272862568609</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -5362,18 +5364,18 @@
         <v>40494</v>
       </c>
       <c r="D7" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E7" s="64">
         <v>76994</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9013681039166297</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -5384,18 +5386,18 @@
         <v>32000</v>
       </c>
       <c r="D8" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E8" s="64">
         <v>76719</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3974687499999998</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -5406,18 +5408,18 @@
         <v>32494</v>
       </c>
       <c r="D9" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4472008194896004</v>
       </c>
       <c r="E9" s="64">
-        <v>-85470</v>
+        <v>85470</v>
       </c>
       <c r="F9" s="8">
-        <f t="shared" si="1"/>
-        <v>-2.6303317535545023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>2.6303317535545023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -5428,18 +5430,18 @@
         <v>29071</v>
       </c>
       <c r="D10" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2821293111052308</v>
       </c>
       <c r="E10" s="64">
         <v>68169</v>
       </c>
       <c r="F10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3449141756389529</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -5450,18 +5452,18 @@
         <v>36551</v>
       </c>
       <c r="D11" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.427550382752695</v>
       </c>
       <c r="E11" s="64">
         <v>91344</v>
       </c>
       <c r="F11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4990834724084157</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -5472,18 +5474,18 @@
         <v>33702</v>
       </c>
       <c r="D12" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87460424560128713</v>
       </c>
       <c r="E12" s="64">
         <v>81549</v>
       </c>
       <c r="F12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4197080291970803</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -5494,18 +5496,18 @@
         <v>31765</v>
       </c>
       <c r="D13" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69883838606063275</v>
       </c>
       <c r="E13" s="64">
         <v>97735</v>
       </c>
       <c r="F13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0768141035731151</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -5516,18 +5518,18 @@
         <v>33517</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57609144035751114</v>
       </c>
       <c r="E14" s="64">
         <v>78132</v>
       </c>
       <c r="F14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3311155533013097</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>12</v>
       </c>
@@ -5538,18 +5540,18 @@
         <v>46546</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0166655745582422</v>
       </c>
       <c r="E15" s="68">
         <v>90483</v>
       </c>
       <c r="F15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9439479224852834</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>61</v>
       </c>
@@ -5562,19 +5564,19 @@
         <v>642449</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.483547367037521</v>
       </c>
       <c r="E16" s="67">
         <f>SUM(E3:E15)</f>
-        <v>741193</v>
+        <v>1020507</v>
       </c>
       <c r="F16" s="39">
-        <f t="shared" si="1"/>
-        <v>1.1536993597935401</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1.5884638313702721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>13</v>
       </c>
@@ -5585,18 +5587,18 @@
         <v>29952</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67241379310344829</v>
       </c>
       <c r="E17" s="68">
         <v>77037</v>
       </c>
       <c r="F17" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5720152243589745</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -5607,18 +5609,18 @@
         <v>35221</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.383005458043743</v>
       </c>
       <c r="E18" s="64">
         <v>102291</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.904261662076602</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
@@ -5629,18 +5631,18 @@
         <v>29914</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71607420706163971</v>
       </c>
       <c r="E19" s="64">
         <v>71288</v>
       </c>
       <c r="F19" s="42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3830982148826636</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -5651,18 +5653,18 @@
         <v>31355</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80928659921536239</v>
       </c>
       <c r="E20" s="64">
         <v>76961</v>
       </c>
       <c r="F20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4545048636581086</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
@@ -5673,18 +5675,18 @@
         <v>29507</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69296164956201123</v>
       </c>
       <c r="E21" s="64">
         <v>83099</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8162469922391296</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -5695,18 +5697,18 @@
         <v>44486</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000449599856127</v>
       </c>
       <c r="E22" s="64">
         <v>115511</v>
       </c>
       <c r="F22" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5965697073236522</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
@@ -5717,18 +5719,18 @@
         <v>46051</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6856092186755598</v>
       </c>
       <c r="E23" s="64">
         <v>83432</v>
       </c>
       <c r="F23" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8117304727367485</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
@@ -5739,18 +5741,18 @@
         <v>62619</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0083412505434695</v>
       </c>
       <c r="E24" s="64">
         <v>75576</v>
       </c>
       <c r="F24" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.206918028074546</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -5761,18 +5763,18 @@
         <v>73630</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98747384796952953</v>
       </c>
       <c r="E25" s="69">
         <v>109099</v>
       </c>
       <c r="F25" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4817194078500611</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>22</v>
       </c>
@@ -5783,18 +5785,18 @@
         <v>65905</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.75084021646254628</v>
       </c>
       <c r="E26" s="68">
         <v>103429</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5693649950686595</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -5805,18 +5807,18 @@
         <v>88638</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2133880903490759</v>
       </c>
       <c r="E27" s="64">
         <v>108227</v>
       </c>
       <c r="F27" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2210000225636859</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
@@ -5827,18 +5829,18 @@
         <v>75440</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2573333333333334</v>
       </c>
       <c r="E28" s="64">
         <v>105984</v>
       </c>
       <c r="F28" s="41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4048780487804877</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>25</v>
       </c>
@@ -5849,18 +5851,18 @@
         <v>36637</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.598194032455069</v>
       </c>
       <c r="E29" s="69">
         <v>136626</v>
       </c>
       <c r="F29" s="87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.7291808827141959</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -5873,7 +5875,7 @@
         <v>649355</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94771861869268814</v>
       </c>
       <c r="E30" s="67">
@@ -5881,11 +5883,11 @@
         <v>1248560</v>
       </c>
       <c r="F30" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9227695174442332</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>26</v>
       </c>
@@ -5896,18 +5898,18 @@
         <v>8464</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38472727272727275</v>
       </c>
       <c r="E31" s="64">
         <v>161956</v>
       </c>
       <c r="F31" s="39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19.134688090737239</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -5918,18 +5920,18 @@
         <v>45279</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45783071618519905</v>
       </c>
       <c r="E32" s="64">
         <v>48188</v>
       </c>
       <c r="F32" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0642461185096843</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>28</v>
       </c>
@@ -5940,18 +5942,18 @@
         <v>31441</v>
       </c>
       <c r="D33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.49787018416177098</v>
       </c>
       <c r="E33" s="64">
         <v>77200</v>
       </c>
       <c r="F33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4553926401832005</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>29</v>
       </c>
@@ -5962,18 +5964,18 @@
         <v>54430</v>
       </c>
       <c r="D34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.64650615861552896</v>
       </c>
       <c r="E34" s="64">
         <v>102465</v>
       </c>
       <c r="F34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8825096454161308</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>30</v>
       </c>
@@ -5984,18 +5986,18 @@
         <v>92200</v>
       </c>
       <c r="D35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4107134660403629</v>
       </c>
       <c r="E35" s="64">
         <v>94066</v>
       </c>
       <c r="F35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0202386117136659</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>31</v>
       </c>
@@ -6006,18 +6008,18 @@
         <v>89022</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1656060963154999</v>
       </c>
       <c r="E36" s="64">
         <v>69479</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.78046999618071933</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
@@ -6028,18 +6030,18 @@
         <v>94210</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1954066742799137</v>
       </c>
       <c r="E37" s="64">
         <v>79805</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.84709691115592822</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>33</v>
       </c>
@@ -6050,18 +6052,18 @@
         <v>74281</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.94990920483899843</v>
       </c>
       <c r="E38" s="64">
         <v>73933</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.9953150873036174</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
@@ -6072,7 +6074,7 @@
         <v>83682</v>
       </c>
       <c r="D39" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6555612709215368</v>
       </c>
       <c r="E39" s="64">
@@ -6080,7 +6082,7 @@
       </c>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
@@ -6091,7 +6093,7 @@
         <v>108870</v>
       </c>
       <c r="D40" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8562343353054509</v>
       </c>
       <c r="E40" s="64">
@@ -6099,7 +6101,7 @@
       </c>
       <c r="F40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>36</v>
       </c>
@@ -6110,7 +6112,7 @@
         <v>107587</v>
       </c>
       <c r="D41" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5833958820845659</v>
       </c>
       <c r="E41" s="64">
@@ -6118,7 +6120,7 @@
       </c>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>37</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>119062</v>
       </c>
       <c r="D42" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0012774612139244</v>
       </c>
       <c r="E42" s="64">
@@ -6137,7 +6139,7 @@
       </c>
       <c r="F42" s="7"/>
     </row>
-    <row r="43" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>38</v>
       </c>
@@ -6148,7 +6150,7 @@
         <v>80951</v>
       </c>
       <c r="D43" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.461183011136983</v>
       </c>
       <c r="E43" s="69">
@@ -6156,7 +6158,7 @@
       </c>
       <c r="F43" s="50"/>
     </row>
-    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>63</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>989479</v>
       </c>
       <c r="D44" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1518722541320439</v>
       </c>
       <c r="E44" s="67">
@@ -6178,7 +6180,7 @@
       </c>
       <c r="F44" s="49"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="14" t="s">
         <v>39</v>
       </c>
@@ -6189,7 +6191,7 @@
         <v>60928</v>
       </c>
       <c r="D45" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1225174103688418</v>
       </c>
       <c r="E45" s="64">
@@ -6197,7 +6199,7 @@
       </c>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -6208,7 +6210,7 @@
         <v>101561</v>
       </c>
       <c r="D46" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1243960089526639</v>
       </c>
       <c r="E46" s="64">
@@ -6216,7 +6218,7 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>93089</v>
       </c>
       <c r="D47" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3317644029242193</v>
       </c>
       <c r="E47" s="64">
@@ -6235,7 +6237,7 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>42</v>
       </c>
@@ -6246,7 +6248,7 @@
         <v>48822</v>
       </c>
       <c r="D48" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.63467838385939368</v>
       </c>
       <c r="E48" s="64">
@@ -6254,7 +6256,7 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>43</v>
       </c>
@@ -6265,7 +6267,7 @@
         <v>65619</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0286722056748707</v>
       </c>
       <c r="E49" s="64">
@@ -6273,7 +6275,7 @@
       </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>44</v>
       </c>
@@ -6284,7 +6286,7 @@
         <v>40203</v>
       </c>
       <c r="D50" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45983598119617058</v>
       </c>
       <c r="E50" s="64">
@@ -6292,7 +6294,7 @@
       </c>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>45</v>
       </c>
@@ -6303,7 +6305,7 @@
         <v>49780</v>
       </c>
       <c r="D51" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.54902393294364182</v>
       </c>
       <c r="E51" s="64">
@@ -6311,7 +6313,7 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>46</v>
       </c>
@@ -6322,7 +6324,7 @@
         <v>54782</v>
       </c>
       <c r="D52" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69056713181812457</v>
       </c>
       <c r="E52" s="64">
@@ -6330,7 +6332,7 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>47</v>
       </c>
@@ -6341,7 +6343,7 @@
         <v>57835</v>
       </c>
       <c r="D53" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8588251017195806</v>
       </c>
       <c r="E53" s="64">
@@ -6349,7 +6351,7 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>48</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>38687</v>
       </c>
       <c r="D54" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61728335966045988</v>
       </c>
       <c r="E54" s="64">
@@ -6368,7 +6370,7 @@
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>49</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>58962</v>
       </c>
       <c r="D55" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1247138715092324</v>
       </c>
       <c r="E55" s="64">
@@ -6387,7 +6389,7 @@
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>55</v>
       </c>
@@ -6398,7 +6400,7 @@
         <v>67635</v>
       </c>
       <c r="D56" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.292717889908257</v>
       </c>
       <c r="E56" s="64">
@@ -6406,7 +6408,7 @@
       </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>56</v>
       </c>
@@ -6417,7 +6419,7 @@
         <v>66809</v>
       </c>
       <c r="D57" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92910286898354821</v>
       </c>
       <c r="E57" s="69">
@@ -6425,7 +6427,7 @@
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
@@ -6438,7 +6440,7 @@
         <v>804712</v>
       </c>
       <c r="D58" s="92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91779122072281683</v>
       </c>
       <c r="E58" s="67">
@@ -6447,7 +6449,7 @@
       </c>
       <c r="F58" s="36"/>
     </row>
-    <row r="59" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="91" t="s">
         <v>57</v>
       </c>
@@ -6460,28 +6462,28 @@
         <v>3085995</v>
       </c>
       <c r="D59" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1516329069000686</v>
       </c>
       <c r="E59" s="71">
         <f>SUM(E58+E44+E30+E16)</f>
-        <v>2870050</v>
+        <v>3149364</v>
       </c>
       <c r="F59" s="37"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="89"/>
       <c r="B61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="54"/>
       <c r="B62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
       <c r="B63" t="s">
         <v>82</v>
@@ -6500,13 +6502,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>74</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>50</v>
       </c>
@@ -6547,7 +6549,7 @@
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
@@ -6574,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
         <v>1</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>2</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
@@ -6655,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>4</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
@@ -6709,7 +6711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>6</v>
       </c>
@@ -6736,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>7</v>
       </c>
@@ -6763,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>8</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>9</v>
       </c>
@@ -6817,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>10</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>59.714801274840646</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>11</v>
       </c>
@@ -6875,7 +6877,7 @@
         <v>64.278647292319789</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>12</v>
       </c>
@@ -6904,7 +6906,7 @@
         <v>75.372338214716194</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>61</v>
       </c>
@@ -6937,7 +6939,7 @@
         <v>65.144957597506462</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
         <v>13</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>80.280112044817926</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
         <v>14</v>
       </c>
@@ -6995,7 +6997,7 @@
         <v>104.97854723372224</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>54.69943443530989</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
         <v>16</v>
       </c>
@@ -7053,7 +7055,7 @@
         <v>82.025864608495851</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
         <v>17</v>
       </c>
@@ -7082,7 +7084,7 @@
         <v>77.550281316691468</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
         <v>18</v>
       </c>
@@ -7111,7 +7113,7 @@
         <v>82.491738433807328</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
         <v>19</v>
       </c>
@@ -7140,7 +7142,7 @@
         <v>109.34745386517852</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
         <v>20</v>
       </c>
@@ -7169,7 +7171,7 @@
         <v>68.023590755079923</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
         <v>21</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>66.724730474083145</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="63" t="s">
         <v>22</v>
       </c>
@@ -7227,7 +7229,7 @@
         <v>118.9179738235588</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
         <v>23</v>
       </c>
@@ -7256,7 +7258,7 @@
         <v>93.904044554731954</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="63" t="s">
         <v>24</v>
       </c>
@@ -7285,7 +7287,7 @@
         <v>93.152824118716239</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>25</v>
       </c>
@@ -7314,7 +7316,7 @@
         <v>70.579785229841747</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
         <v>62</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>85.338091947397118</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="63" t="s">
         <v>26</v>
       </c>
@@ -7376,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="63" t="s">
         <v>27</v>
       </c>
@@ -7405,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="63" t="s">
         <v>28</v>
       </c>
@@ -7434,7 +7436,7 @@
         <v>53.512251727115711</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
         <v>29</v>
       </c>
@@ -7463,7 +7465,7 @@
         <v>83.170631017860828</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="63" t="s">
         <v>30</v>
       </c>
@@ -7492,7 +7494,7 @@
         <v>126.32787662332355</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="63" t="s">
         <v>31</v>
       </c>
@@ -7521,7 +7523,7 @@
         <v>92.093723999910054</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="63" t="s">
         <v>32</v>
       </c>
@@ -7550,7 +7552,7 @@
         <v>104.82360884487707</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
         <v>33</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>102.0821112873691</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
         <v>34</v>
       </c>
@@ -7608,7 +7610,7 @@
         <v>123.73523685918235</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="s">
         <v>35</v>
       </c>
@@ -7637,7 +7639,7 @@
         <v>86.898355710121336</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
         <v>36</v>
       </c>
@@ -7666,7 +7668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="63" t="s">
         <v>37</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
         <v>38</v>
       </c>
@@ -7724,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
         <v>63</v>
       </c>
@@ -7757,7 +7759,7 @@
         <v>64.408628652212471</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
         <v>39</v>
       </c>
@@ -7786,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
         <v>40</v>
       </c>
@@ -7815,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
         <v>41</v>
       </c>
@@ -7844,7 +7846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
         <v>42</v>
       </c>
@@ -7873,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
         <v>43</v>
       </c>
@@ -7902,7 +7904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="63" t="s">
         <v>44</v>
       </c>
@@ -7931,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="63" t="s">
         <v>45</v>
       </c>
@@ -7960,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
         <v>46</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
         <v>47</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
         <v>48</v>
       </c>
@@ -8047,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
         <v>49</v>
       </c>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
         <v>55</v>
       </c>
@@ -8105,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="s">
         <v>56</v>
       </c>
@@ -8134,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="78" t="s">
         <v>64</v>
       </c>
@@ -8167,7 +8169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="79" t="s">
         <v>57</v>
       </c>
@@ -8200,22 +8202,22 @@
         <v>46.820185110371128</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C60" s="72"/>
       <c r="D60" s="72"/>
       <c r="E60" s="72"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C61" s="72"/>
       <c r="D61" s="72"/>
       <c r="E61" s="72"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C62" s="72"/>
       <c r="D62" s="72"/>
       <c r="E62" s="72"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
       <c r="B63" t="s">
         <v>78</v>
@@ -8234,16 +8236,16 @@
       <selection activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="5" max="5" width="17.296875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="14" max="14" width="18.796875" customWidth="1"/>
+    <col min="14" max="14" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>74</v>
       </c>
@@ -8281,7 +8283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>50</v>
       </c>
@@ -8301,7 +8303,7 @@
       <c r="M2" s="62"/>
       <c r="N2" s="76"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
@@ -8341,7 +8343,7 @@
         <v>49.030909551558146</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
         <v>1</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>46.899609047752023</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="63" t="s">
         <v>2</v>
       </c>
@@ -8421,7 +8423,7 @@
         <v>46.783690393918455</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="63" t="s">
         <v>3</v>
       </c>
@@ -8461,7 +8463,7 @@
         <v>47.879964336903399</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="63" t="s">
         <v>4</v>
       </c>
@@ -8501,7 +8503,7 @@
         <v>42.336496904246076</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
@@ -8541,7 +8543,7 @@
         <v>43.514931510734236</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>6</v>
       </c>
@@ -8581,7 +8583,7 @@
         <v>42.686337575164316</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>7</v>
       </c>
@@ -8621,7 +8623,7 @@
         <v>32.345600516246584</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="63" t="s">
         <v>8</v>
       </c>
@@ -8661,7 +8663,7 @@
         <v>38.486721524907416</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
         <v>9</v>
       </c>
@@ -8701,7 +8703,7 @@
         <v>38.322979031363666</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
         <v>10</v>
       </c>
@@ -8742,7 +8744,7 @@
         <v>49.643426760262912</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="63" t="s">
         <v>11</v>
       </c>
@@ -8783,7 +8785,7 @@
         <v>34.875063606416887</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>12</v>
       </c>
@@ -8824,7 +8826,7 @@
         <v>46.350434136721056</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>61</v>
       </c>
@@ -8870,7 +8872,7 @@
         <v>42.325844136614691</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
         <v>13</v>
       </c>
@@ -8911,7 +8913,7 @@
         <v>36.802931354891719</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="63" t="s">
         <v>14</v>
       </c>
@@ -8952,7 +8954,7 @@
         <v>41.010560246325561</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="63" t="s">
         <v>15</v>
       </c>
@@ -8993,7 +8995,7 @@
         <v>28.750262143283482</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="63" t="s">
         <v>16</v>
       </c>
@@ -9034,7 +9036,7 @@
         <v>33.432232841007817</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="63" t="s">
         <v>17</v>
       </c>
@@ -9075,7 +9077,7 @@
         <v>33.301273959372757</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="63" t="s">
         <v>18</v>
       </c>
@@ -9116,7 +9118,7 @@
         <v>43.535663808536704</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
         <v>19</v>
       </c>
@@ -9157,7 +9159,7 @@
         <v>31.201546763800643</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="63" t="s">
         <v>20</v>
       </c>
@@ -9198,7 +9200,7 @@
         <v>26.079034907314107</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="63" t="s">
         <v>21</v>
       </c>
@@ -9239,7 +9241,7 @@
         <v>37.118856279642621</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="63" t="s">
         <v>22</v>
       </c>
@@ -9280,7 +9282,7 @@
         <v>33.451923916594168</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="63" t="s">
         <v>23</v>
       </c>
@@ -9321,7 +9323,7 @@
         <v>38.950190743539913</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="63" t="s">
         <v>24</v>
       </c>
@@ -9362,7 +9364,7 @@
         <v>40.195851616989479</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="65" t="s">
         <v>25</v>
       </c>
@@ -9403,7 +9405,7 @@
         <v>158.48780827320604</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
         <v>62</v>
       </c>
@@ -9449,7 +9451,7 @@
         <v>38.538181369220318</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="63" t="s">
         <v>26</v>
       </c>
@@ -9490,7 +9492,7 @@
         <v>89.241297987117107</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="63" t="s">
         <v>27</v>
       </c>
@@ -9531,7 +9533,7 @@
         <v>19.123360517491118</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="63" t="s">
         <v>28</v>
       </c>
@@ -9572,7 +9574,7 @@
         <v>34.142824920724074</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="63" t="s">
         <v>29</v>
       </c>
@@ -9613,7 +9615,7 @@
         <v>57.049875839337219</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="63" t="s">
         <v>30</v>
       </c>
@@ -9654,7 +9656,7 @@
         <v>43.640395642733871</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="63" t="s">
         <v>31</v>
       </c>
@@ -9695,7 +9697,7 @@
         <v>30.141556294981974</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="63" t="s">
         <v>32</v>
       </c>
@@ -9736,7 +9738,7 @@
         <v>34.756912838782448</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
         <v>33</v>
       </c>
@@ -9777,7 +9779,7 @@
         <v>33.975625672086245</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
         <v>34</v>
       </c>
@@ -9818,7 +9820,7 @@
         <v>40.471162217375941</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="s">
         <v>35</v>
       </c>
@@ -9859,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
         <v>36</v>
       </c>
@@ -9900,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="63" t="s">
         <v>37</v>
       </c>
@@ -9941,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="65" t="s">
         <v>38</v>
       </c>
@@ -9982,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="66" t="s">
         <v>63</v>
       </c>
@@ -10028,7 +10030,7 @@
         <v>23.525932174317596</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
         <v>39</v>
       </c>
@@ -10069,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
         <v>40</v>
       </c>
@@ -10110,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
         <v>41</v>
       </c>
@@ -10151,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
         <v>42</v>
       </c>
@@ -10192,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
         <v>43</v>
       </c>
@@ -10233,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="63" t="s">
         <v>44</v>
       </c>
@@ -10274,7 +10276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="63" t="s">
         <v>45</v>
       </c>
@@ -10315,7 +10317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
         <v>46</v>
       </c>
@@ -10356,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
         <v>47</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
         <v>48</v>
       </c>
@@ -10438,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
         <v>49</v>
       </c>
@@ -10479,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
         <v>55</v>
       </c>
@@ -10520,7 +10522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="65" t="s">
         <v>56</v>
       </c>
@@ -10561,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="66" t="s">
         <v>64</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="70" t="s">
         <v>57</v>
       </c>
@@ -10654,19 +10656,19 @@
         <v>22.342563199996974</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="29"/>
       <c r="B61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="54"/>
       <c r="B62" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="75"/>
       <c r="B63" t="s">
         <v>82</v>
